--- a/biology/Neurosciences/Louis_Dubosquet/Louis_Dubosquet.xlsx
+++ b/biology/Neurosciences/Louis_Dubosquet/Louis_Dubosquet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Dubosquet est un médecin français, auteur, d'une thèse de médecine publiée en 1815 intitulée Dissertation sur le cauchemar.
-Il s'attache à analyser le phénomène du cauchemar. Partant du terme latin d'« incubus », qu'il remplace par celui de « cauchemar »[1], il démontre que l'incube est une affection, qui possède des causes, un pronostic et qui est curable au moyen d'un traitement.
-Louis Dubosquet a examiné plusieurs cas d'aliénés victimes de cauchemars frappants, à la Salpêtrière et en a déduit que ce mal nocturne est précurseur de délires maniaques ou d'aliénations mentales[2] qui peut parfois, lorsqu'ils sont répétés, se terminer par la mort[3].
+Il s'attache à analyser le phénomène du cauchemar. Partant du terme latin d'« incubus », qu'il remplace par celui de « cauchemar », il démontre que l'incube est une affection, qui possède des causes, un pronostic et qui est curable au moyen d'un traitement.
+Louis Dubosquet a examiné plusieurs cas d'aliénés victimes de cauchemars frappants, à la Salpêtrière et en a déduit que ce mal nocturne est précurseur de délires maniaques ou d'aliénations mentales qui peut parfois, lorsqu'ils sont répétés, se terminer par la mort.
 </t>
         </is>
       </c>
